--- a/config_1.26/fish_2d_fish_server.xlsx
+++ b/config_1.26/fish_2d_fish_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="group" sheetId="1" r:id="rId1"/>
@@ -1731,10 +1731,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小丑boss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0,0,0.01,</t>
   </si>
   <si>
@@ -1745,6 +1741,10 @@
   </si>
   <si>
     <t>0,0,0.3,0.4</t>
+  </si>
+  <si>
+    <t>活动boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2215,7 +2215,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A182" workbookViewId="0">
+    <sheetView topLeftCell="A182" workbookViewId="0">
       <selection activeCell="F197" sqref="F197"/>
     </sheetView>
   </sheetViews>
@@ -8302,7 +8302,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N183"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H184" sqref="H184"/>
     </sheetView>
@@ -16862,7 +16862,7 @@
       </c>
       <c r="H181" s="19" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B181,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C181,activity!A:A,0)),"")</f>
-        <v>小丑boss+临时活动</v>
+        <v>活动boss+临时活动</v>
       </c>
       <c r="I181" s="17">
         <f>LOOKUP(use_fish!B181,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C181,activity!A:A,0)),0)</f>
@@ -16910,7 +16910,7 @@
       </c>
       <c r="H182" s="19" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B182,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C182,activity!A:A,0)),"")</f>
-        <v>小丑boss+临时活动</v>
+        <v>活动boss+临时活动</v>
       </c>
       <c r="I182" s="17">
         <f>LOOKUP(use_fish!B182,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C182,activity!A:A,0)),0)</f>
@@ -16958,7 +16958,7 @@
       </c>
       <c r="H183" s="19" t="str">
         <f>INDEX(base_fish!E:E,MATCH(use_fish!B183,base_fish!A:A,0))&amp;_xlfn.IFNA("+"&amp;INDEX(activity!G:G,MATCH(use_fish!C183,activity!A:A,0)),"")</f>
-        <v>小丑boss+临时活动</v>
+        <v>活动boss+临时活动</v>
       </c>
       <c r="I183" s="17">
         <f>LOOKUP(use_fish!B183,base_fish!A:A,base_fish!F:F)+_xlfn.IFNA(INDEX(activity!F:F,MATCH(use_fish!C183,activity!A:A,0)),0)</f>
@@ -18188,7 +18188,7 @@
         <v>9</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D45" s="18">
         <v>0</v>
@@ -18211,7 +18211,7 @@
         <v>9</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D46" s="18">
         <v>0</v>
@@ -18234,7 +18234,7 @@
         <v>9</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D47" s="18">
         <v>0</v>
@@ -18257,7 +18257,7 @@
         <v>9</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D48" s="18">
         <v>1</v>
@@ -18460,7 +18460,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19350,7 +19350,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="F36" s="16">
         <v>0</v>
